--- a/inst/extdata/INPUT_DATA_GENERATION - Blank.xlsx
+++ b/inst/extdata/INPUT_DATA_GENERATION - Blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitchscott/Documents/CEPA_R/CEPA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E803035-9FB6-0C4B-8864-3D8F3989BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CCC950-E496-6C43-95A3-F1916F8EA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{E3C27524-38B8-4B80-BF13-FF75E83129EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{E3C27524-38B8-4B80-BF13-FF75E83129EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,12 @@
     <definedName name="EFFICIENCY_LOSS">DATA!$G$2:$G$157</definedName>
     <definedName name="FUEL_TYPE">DATA!$Q$2:$Q$157</definedName>
     <definedName name="GEN_LOCATION">GEN_LOCATION!$C$2:$G$157</definedName>
+    <definedName name="GEN_TECH">DATA!$I$2:$I$157</definedName>
     <definedName name="GEN_TYPE">DATA!$J$2:$J$157</definedName>
     <definedName name="Generators">[1]SETS!$B$2:$B$157</definedName>
     <definedName name="HEATRATE">DATA!$S$2:$S$157</definedName>
     <definedName name="HYDRO_DAM_CAPACITY">DATA!$M$2:$M$157</definedName>
+    <definedName name="HYDRO_DISCHARGE_CAPACITY">DATA!$N$2:$N$157</definedName>
     <definedName name="HYDRO_UNITS_KEY">DATA!$K$2:$K$157</definedName>
     <definedName name="INITIAL_ENERGY_STOCK_IN_DAMS">DATA!$L$2:$L$157</definedName>
     <definedName name="j">DATA!$B$2:$B$157</definedName>
@@ -46,6 +48,8 @@
     <definedName name="RAMPDOWNFACTOR">DATA!$AB$2:$AB$157</definedName>
     <definedName name="RAMPUPFACTOR">DATA!$AE$2:$AE$157</definedName>
     <definedName name="SHUTRAMPFACTOR">DATA!$AF$2:$AF$157</definedName>
+    <definedName name="STARTCOST">DATA!$AI$2:$AI$157</definedName>
+    <definedName name="STARTRAMPFACTOR">DATA!$AJ$2:$AJ$157</definedName>
     <definedName name="VARCOST">DATA!$AK$2:$AK$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163EDEB8-18D9-4793-86C6-086D3492ADD9}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="AJ157" sqref="AJ2:AJ157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -712,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886E5E49-48E7-4CE9-BA69-2750FDD9FD81}">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1860,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF2BC18-DA4B-4717-B243-CAF977B4FC34}">
   <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
